--- a/BOM/PCB_mfg_quotes.xlsx
+++ b/BOM/PCB_mfg_quotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>PCB print time is 1-2 days + 5-6 days assembly time + Shipping</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>3- 4 weeks</t>
+  </si>
+  <si>
+    <t>Price is board, parts, and assembly</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +132,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,11 +450,11 @@
     <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="126.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="7" width="126.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,11 +470,14 @@
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -480,7 +495,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,7 +513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,11 +530,11 @@
         <f>D4/C4</f>
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -536,8 +551,32 @@
         <f>D5/C5</f>
         <v>66</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>600</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6/C6</f>
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
